--- a/documentation/Gantt Chart.xlsx
+++ b/documentation/Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clayt\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB56A323-E579-4504-AD76-60DE7C30CE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8559B4F1-371D-4D40-9421-954CF8BBAC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9B8C4B5-FD59-4FDB-A830-692C0E4D06FA}"/>
   </bookViews>
@@ -129,7 +129,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,6 +148,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -161,10 +167,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,7 +509,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,38 +583,54 @@
       <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
+      <c r="O11" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/documentation/Gantt Chart.xlsx
+++ b/documentation/Gantt Chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clayt\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clayt\Documents\GitHub\ClaytonSanner33.github.io\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8559B4F1-371D-4D40-9421-954CF8BBAC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7CEBAF-7ECF-4B37-8158-40AB3AB9CE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9B8C4B5-FD59-4FDB-A830-692C0E4D06FA}"/>
   </bookViews>
@@ -129,7 +129,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,6 +154,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -167,11 +173,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,7 +516,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,13 +599,13 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
